--- a/public/report/Education_Sheet.xlsx
+++ b/public/report/Education_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal-info-management-system\public\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\personal-info-management-system\public\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8C2111-B20C-4893-A7CF-DEEEB2D33E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929320BD-147F-4A4C-BE16-EC3D6640054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementary" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <sheet name="College" sheetId="3" r:id="rId4"/>
     <sheet name="Graduate Studies" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t xml:space="preserve">                                                                                                                               </t>
   </si>
@@ -76,12 +87,15 @@
   <si>
     <t>GRADUATE STUDIES</t>
   </si>
+  <si>
+    <t>,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +154,31 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -503,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -514,6 +553,61 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,57 +617,30 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,34 +650,100 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -625,107 +758,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,12 +1057,12 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1025,171 +1070,174 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -1201,6 +1249,8 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="C2:E4"/>
@@ -1218,169 +1268,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB712A8C-5E4F-436B-9939-6CEB89D2A5EF}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:H3"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1391,187 +1444,191 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:H3"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1580,185 +1637,188 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:H3"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1769,186 +1829,188 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:H3"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/report/Education_Sheet.xlsx
+++ b/public/report/Education_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\personal-info-management-system\public\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929320BD-147F-4A4C-BE16-EC3D6640054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189AEDD3-E1A0-4E2F-922F-AEDE31C14B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementary" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -608,6 +608,69 @@
     <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -695,83 +758,64 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1070,89 +1114,89 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="46"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="35"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="47"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
@@ -1162,12 +1206,12 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="7"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
@@ -1177,12 +1221,12 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="7"/>
       <c r="J7" s="12"/>
       <c r="K7" s="9"/>
@@ -1192,12 +1236,12 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="7"/>
       <c r="J8" s="12"/>
       <c r="K8" s="9"/>
@@ -1207,14 +1251,14 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="7"/>
       <c r="J9" s="12"/>
       <c r="K9" s="9"/>
@@ -1224,12 +1268,12 @@
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
       <c r="K10" s="16"/>
@@ -1238,6 +1282,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="F2:H4"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
@@ -1251,14 +1303,6 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="F2:H4"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1269,153 +1313,164 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="11"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:E8"/>
@@ -1423,17 +1478,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1443,169 +1487,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A00F79-98FC-4C70-A3BE-95652AF3F837}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C9:E9"/>
@@ -1615,17 +1670,6 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1637,168 +1681,179 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C4" sqref="C4:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C9:E9"/>
@@ -1808,17 +1863,6 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1828,169 +1872,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356B84E-F7FB-4443-8B97-5EC57FDA0E40}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="77"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:H3"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C9:E9"/>
@@ -2000,17 +2055,6 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:H3"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
